--- a/Mifos Automation Excels/Client/4873-DISBLOAN01JAN2015-Make1stPMNTon01FEB2015-Amount-3000(LateRepayement).xlsx
+++ b/Mifos Automation Excels/Client/4873-DISBLOAN01JAN2015-Make1stPMNTon01FEB2015-Amount-3000(LateRepayement).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -816,10 +816,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +828,7 @@
     <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
@@ -866,15 +866,16 @@
       <c r="M1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10">
@@ -901,8 +902,9 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -940,15 +942,16 @@
       <c r="M3" s="9">
         <v>0</v>
       </c>
-      <c r="N3" s="9">
-        <v>0</v>
-      </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -984,15 +987,16 @@
       <c r="M4" s="9">
         <v>0</v>
       </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="9"/>
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -1028,15 +1032,16 @@
       <c r="M5" s="9">
         <v>0</v>
       </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="9"/>
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -1072,15 +1077,16 @@
       <c r="M6" s="9">
         <v>0</v>
       </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N6" s="9"/>
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -1116,15 +1122,16 @@
       <c r="M7" s="9">
         <v>0</v>
       </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N7" s="9"/>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1160,15 +1167,16 @@
       <c r="M8" s="9">
         <v>0</v>
       </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N8" s="9"/>
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -1204,15 +1212,16 @@
       <c r="M9" s="9">
         <v>0</v>
       </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N9" s="9"/>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -1248,15 +1257,16 @@
       <c r="M10" s="9">
         <v>0</v>
       </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N10" s="9"/>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -1292,15 +1302,16 @@
       <c r="M11" s="9">
         <v>0</v>
       </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9">
-        <v>887.72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11" s="9"/>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9">
+        <v>887.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -1336,11 +1347,12 @@
       <c r="M12" s="9">
         <v>0</v>
       </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9">
+      <c r="N12" s="9"/>
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9">
         <v>343.73</v>
       </c>
     </row>
@@ -1353,7 +1365,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
